--- a/DZ_3/Домашнее_задание1.xlsx
+++ b/DZ_3/Домашнее_задание1.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dmitrii Sutyagin\Desktop\Новая папка\Mytraining\Excel\DZ_3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3566FF7-F659-4AB5-94D0-D6D537C8E4DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E513AF5-D40F-4C80-8EE4-1ADA7E77FC4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7290" yWindow="5115" windowWidth="16350" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Данные" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Данные!$C$6:$C$17</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">Данные!$E$6:$E$17</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Данные!$D$6:$D$17</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Данные!$E$6:$E$17</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -144,7 +145,7 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -156,97 +157,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF92D050"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -477,23 +387,24 @@
         <c:axId val="845476768"/>
         <c:axId val="845458880"/>
       </c:barChart>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
           <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:invertIfNegative val="0"/>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>Данные!$C$6:$C$17</c:f>
@@ -583,6 +494,7 @@
               </c:numCache>
             </c:numRef>
           </c:val>
+          <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-AEBF-4949-A18B-E3309219B70D}"/>
@@ -597,10 +509,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="150"/>
-        <c:axId val="845477600"/>
-        <c:axId val="845469696"/>
-      </c:barChart>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="377739936"/>
+        <c:axId val="377745760"/>
+      </c:lineChart>
       <c:catAx>
         <c:axId val="845476768"/>
         <c:scaling>
@@ -709,7 +622,7 @@
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="845469696"/>
+        <c:axId val="377745760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -746,12 +659,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="845477600"/>
+        <c:crossAx val="377739936"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="845477600"/>
+        <c:axId val="377739936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -761,7 +674,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="845469696"/>
+        <c:crossAx val="377745760"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -934,6 +847,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -949,6 +867,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -964,6 +887,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
@@ -979,6 +907,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
@@ -994,6 +927,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
@@ -1009,6 +947,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
@@ -1026,6 +969,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
@@ -1043,6 +991,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
@@ -1060,6 +1013,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
@@ -1077,6 +1035,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="10"/>
@@ -1094,6 +1057,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="11"/>
@@ -1111,6 +1079,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-69CE-4F00-A179-1AB95175E985}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
